--- a/アルバム登録_結合テスト.xlsx
+++ b/アルバム登録_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D2F53E-771C-44E8-B0B5-359A3767B56C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C543C971-4155-432E-BCA9-C9220FF4F017}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -958,6 +958,16 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1720,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1732,7 +1742,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1772,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1827,7 +1837,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
@@ -1878,7 +1888,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -1929,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>24</v>
@@ -1980,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>24</v>
@@ -2031,7 +2041,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
@@ -2082,7 +2092,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
@@ -2120,7 +2130,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>24</v>
@@ -2155,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2167,7 +2177,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2207,7 +2217,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="4">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2262,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
@@ -2300,7 +2310,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -2338,7 +2348,7 @@
         <v>54</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
@@ -2374,7 +2384,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>24</v>
@@ -2412,7 +2422,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>24</v>
@@ -2459,13 +2469,13 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
@@ -2516,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
@@ -2552,7 +2562,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>24</v>
@@ -2588,7 +2598,7 @@
         <v>57</v>
       </c>
       <c r="G27" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>24</v>
